--- a/Lab de máquinas eléctricas/L3/Mediciones LAB3.xlsx
+++ b/Lab de máquinas eléctricas/L3/Mediciones LAB3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvador\OneDrive\Escritorio\PUCP\PUCP-2024-1\Lab de máquinas eléctricas\L3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Cosas\Universidad\2024-1\PUCP-2024-1_V2\Lab de máquinas eléctricas\L3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36474265-29C7-4080-84E5-5BA76D1C24FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" xr2:uid="{D7D2285D-4D81-430C-81A0-747484EDF272}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Tabla 2</t>
   </si>
@@ -186,14 +185,52 @@
   </si>
   <si>
     <t>Deberíamos restarle?</t>
+  </si>
+  <si>
+    <t>Ecucaciones</t>
+  </si>
+  <si>
+    <t>Pfe vs Vo</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Pfe</t>
+  </si>
+  <si>
+    <t>Pcc vs Icc</t>
+  </si>
+  <si>
+    <t>Icc</t>
+  </si>
+  <si>
+    <t>Pcc</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rajustada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -221,9 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,21 +597,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6A772-699E-4DB7-8A1A-63507590FCBB}">
-  <dimension ref="B2:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54:L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -590,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>80</v>
       </c>
@@ -602,7 +642,7 @@
         <v>2.0202020202020203</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>160</v>
       </c>
@@ -614,7 +654,7 @@
         <v>2.0125786163522013</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>220</v>
       </c>
@@ -626,7 +666,7 @@
         <v>2.0091324200913241</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>240</v>
       </c>
@@ -638,7 +678,13 @@
         <v>2.0066889632107023</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10">
+      <c r="D8">
+        <f>AVERAGE(D4:D7)</f>
+        <v>2.0121505049640622</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -649,7 +695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -662,8 +708,14 @@
       <c r="F11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -673,8 +725,16 @@
       <c r="D12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <f>D12-0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <f xml:space="preserve"> I12 * (1 + 0.00392 * (75 - 25))</f>
+        <v>0.7175999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -684,8 +744,16 @@
       <c r="D13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <f>D13-0.1</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="J13">
+        <f xml:space="preserve"> I13 * (1 + 0.00392 * (75 - 25))</f>
+        <v>0.23919999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -693,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -710,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>50</v>
       </c>
@@ -727,7 +795,7 @@
         <v>0.32879999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>100</v>
       </c>
@@ -744,7 +812,7 @@
         <v>0.31330000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>150</v>
       </c>
@@ -761,7 +829,7 @@
         <v>0.2853</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>200</v>
       </c>
@@ -778,7 +846,7 @@
         <v>0.25369999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>220</v>
       </c>
@@ -794,8 +862,11 @@
       <c r="F22">
         <v>0.2417</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>240</v>
       </c>
@@ -811,8 +882,28 @@
       <c r="F23">
         <v>0.22869999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="O25">
+        <v>240</v>
+      </c>
+      <c r="P25">
+        <f>0.0003*O25^2 - 0.0004*O25 + 0.2198</f>
+        <v>17.403799999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -820,7 +911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -840,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>1.97</v>
       </c>
@@ -859,8 +950,11 @@
       <c r="G28">
         <v>0.98150000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>4.17</v>
       </c>
@@ -879,8 +973,14 @@
       <c r="G29">
         <v>0.98150000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>5.99</v>
       </c>
@@ -899,8 +999,15 @@
       <c r="G30" s="1">
         <v>0.98150000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <f>1.8849*O30^2 + 0.4937*O30 - 0.3442</f>
+        <v>2.0344000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>8.0399999999999991</v>
       </c>
@@ -920,7 +1027,7 @@
         <v>0.98140000000000005</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>9.07</v>
       </c>
@@ -940,7 +1047,7 @@
         <v>0.98160000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>10.02</v>
       </c>
@@ -960,7 +1067,7 @@
         <v>0.98150000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -968,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12">
       <c r="B38">
         <v>220</v>
       </c>
@@ -1016,6 +1123,18 @@
       <c r="E38">
         <v>2.133</v>
       </c>
+      <c r="F38" s="3">
+        <f>0.0003*B38^2 - 0.0004*B38 + 0.2198</f>
+        <v>14.6518</v>
+      </c>
+      <c r="G38" s="3">
+        <f>1.8849*C38^2 + 0.4937*C38 - 0.3442</f>
+        <v>2.6205098099999997</v>
+      </c>
+      <c r="H38" s="3">
+        <f>F38+G38</f>
+        <v>17.272309809999999</v>
+      </c>
       <c r="I38">
         <v>244.8</v>
       </c>
@@ -1025,8 +1144,12 @@
       <c r="K38">
         <v>0.98009999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L38" s="3">
+        <f>I38-H38</f>
+        <v>227.52769019000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
       <c r="B39">
         <v>219.45</v>
       </c>
@@ -1039,6 +1162,18 @@
       <c r="E39">
         <v>4.29</v>
       </c>
+      <c r="F39" s="3">
+        <f t="shared" ref="F39:F41" si="1">0.0003*B39^2 - 0.0004*B39 + 0.2198</f>
+        <v>14.579510749999997</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39:G41" si="2">1.8849*C39^2 + 0.4937*C39 - 0.3442</f>
+        <v>9.7946785536000007</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39:H41" si="3">F39+G39</f>
+        <v>24.374189303599998</v>
+      </c>
       <c r="I39">
         <v>478.3</v>
       </c>
@@ -1048,8 +1183,12 @@
       <c r="K39">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L39" s="3">
+        <f t="shared" ref="L39:L41" si="4">I39-H39</f>
+        <v>453.92581069639999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40">
         <v>218.69</v>
       </c>
@@ -1062,6 +1201,18 @@
       <c r="E40">
         <v>6.77</v>
       </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>14.479918829999997</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>23.323913402500001</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="3"/>
+        <v>37.8038322325</v>
+      </c>
       <c r="I40">
         <v>745</v>
       </c>
@@ -1071,8 +1222,12 @@
       <c r="K40">
         <v>0.99750000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="3">
+        <f t="shared" si="4"/>
+        <v>707.19616776750001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41">
         <v>218.3</v>
       </c>
@@ -1085,6 +1240,18 @@
       <c r="E41">
         <v>8.98</v>
       </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>14.428947000000001</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>40.116536358399998</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>54.545483358399999</v>
+      </c>
       <c r="I41">
         <v>981.6</v>
       </c>
@@ -1094,8 +1261,15 @@
       <c r="K41">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="3">
+        <f t="shared" si="4"/>
+        <v>927.0545166416</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12">
       <c r="B45" t="s">
         <v>29</v>
       </c>
@@ -1138,7 +1312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12">
       <c r="B46">
         <v>220.32</v>
       </c>
@@ -1151,6 +1325,18 @@
       <c r="E46">
         <v>1.903</v>
       </c>
+      <c r="F46" s="3">
+        <f>0.0003*B46^2 - 0.0004*B46 + 0.2198</f>
+        <v>14.693942719999999</v>
+      </c>
+      <c r="G46" s="3">
+        <f>1.8849*C46^2 + 0.4937*C46 - 0.3442</f>
+        <v>2.8234848816000002</v>
+      </c>
+      <c r="H46" s="3">
+        <f>F46+G46</f>
+        <v>17.517427601599998</v>
+      </c>
       <c r="I46">
         <v>27.7</v>
       </c>
@@ -1160,8 +1346,12 @@
       <c r="K46">
         <v>0.1074</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L46" s="3">
+        <f>I46-H46</f>
+        <v>10.182572398400001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
       <c r="B47">
         <v>219.13</v>
       </c>
@@ -1174,6 +1364,18 @@
       <c r="E47">
         <v>4.0389999999999997</v>
       </c>
+      <c r="F47" s="3">
+        <f t="shared" ref="F47:F49" si="5">0.0003*B47^2 - 0.0004*B47 + 0.2198</f>
+        <v>14.537535069999997</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" ref="G47:G49" si="6">1.8849*C47^2 + 0.4937*C47 - 0.3442</f>
+        <v>10.050219700900001</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47:H49" si="7">F47+G47</f>
+        <v>24.587754770899998</v>
+      </c>
       <c r="I47">
         <v>58.2</v>
       </c>
@@ -1183,8 +1385,12 @@
       <c r="K47">
         <v>0.1195</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L47" s="3">
+        <f t="shared" ref="L47:L49" si="8">I47-H47</f>
+        <v>33.612245229100004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48">
         <v>219.3</v>
       </c>
@@ -1197,6 +1403,18 @@
       <c r="E48">
         <v>6.33</v>
       </c>
+      <c r="F48" s="3">
+        <f t="shared" si="5"/>
+        <v>14.559827</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="6"/>
+        <v>22.699801497599996</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="7"/>
+        <v>37.259628497599998</v>
+      </c>
       <c r="I48">
         <v>106.3</v>
       </c>
@@ -1206,8 +1424,12 @@
       <c r="K48">
         <v>0.1439</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L48" s="3">
+        <f t="shared" si="8"/>
+        <v>69.040371502400006</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
       <c r="B49">
         <v>219.02</v>
       </c>
@@ -1220,6 +1442,18 @@
       <c r="E49">
         <v>8.64</v>
       </c>
+      <c r="F49" s="3">
+        <f t="shared" si="5"/>
+        <v>14.52312012</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="6"/>
+        <v>39.872285490000003</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="7"/>
+        <v>54.395405610000005</v>
+      </c>
       <c r="I49">
         <v>167.2</v>
       </c>
@@ -1229,8 +1463,12 @@
       <c r="K49">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L49" s="3">
+        <f t="shared" si="8"/>
+        <v>112.80459438999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +1476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15">
       <c r="B53" t="s">
         <v>29</v>
       </c>
@@ -1272,8 +1510,9 @@
       <c r="L53" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15">
       <c r="B54">
         <v>220.42</v>
       </c>
@@ -1286,6 +1525,18 @@
       <c r="E54">
         <v>2.508</v>
       </c>
+      <c r="F54" s="3">
+        <f>0.0003*B54^2 - 0.0004*B54 + 0.2198</f>
+        <v>14.707124919999996</v>
+      </c>
+      <c r="G54" s="3">
+        <f>1.8849*C54^2 + 0.4937*C54 - 0.3442</f>
+        <v>2.1334576121</v>
+      </c>
+      <c r="H54" s="3">
+        <f>F54+G54</f>
+        <v>16.840582532099997</v>
+      </c>
       <c r="I54">
         <v>16.8</v>
       </c>
@@ -1295,8 +1546,12 @@
       <c r="K54">
         <v>7.9600000000000004E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L54" s="3">
+        <f>I54-H54</f>
+        <v>-4.0582532099996627E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
       <c r="B55">
         <v>221.13</v>
       </c>
@@ -1309,6 +1564,18 @@
       <c r="E55">
         <v>5.0359999999999996</v>
       </c>
+      <c r="F55" s="3">
+        <f t="shared" ref="F55:F57" si="9">0.0003*B55^2 - 0.0004*B55 + 0.2198</f>
+        <v>14.800891069999999</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" ref="G55:G57" si="10">1.8849*C55^2 + 0.4937*C55 - 0.3442</f>
+        <v>10.5708132009</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55:H57" si="11">F55+G55</f>
+        <v>25.371704270899997</v>
+      </c>
       <c r="I55">
         <v>28.6</v>
       </c>
@@ -1318,8 +1585,12 @@
       <c r="K55">
         <v>5.6800000000000003E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L55" s="3">
+        <f t="shared" ref="L55:L57" si="12">I55-H55</f>
+        <v>3.2282957291000045</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
       <c r="B56">
         <v>221.43</v>
       </c>
@@ -1332,6 +1603,18 @@
       <c r="E56">
         <v>6.33</v>
       </c>
+      <c r="F56" s="3">
+        <f t="shared" si="9"/>
+        <v>14.840601470000001</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="10"/>
+        <v>17.226370062499999</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="11"/>
+        <v>32.066971532499998</v>
+      </c>
       <c r="I56">
         <v>37.1</v>
       </c>
@@ -1341,8 +1624,12 @@
       <c r="K56">
         <v>5.7200000000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L56" s="3">
+        <f t="shared" si="12"/>
+        <v>5.033028467500003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
       <c r="B57">
         <v>220.59</v>
       </c>
@@ -1355,6 +1642,18 @@
       <c r="E57">
         <v>8.83</v>
       </c>
+      <c r="F57" s="3">
+        <f t="shared" si="9"/>
+        <v>14.729548429999998</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="10"/>
+        <v>34.135076049599988</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="11"/>
+        <v>48.864624479599982</v>
+      </c>
       <c r="I57">
         <v>57</v>
       </c>
@@ -1364,8 +1663,12 @@
       <c r="K57">
         <v>6.2300000000000001E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L57" s="3">
+        <f t="shared" si="12"/>
+        <v>8.135375520400018</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
       <c r="B60" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15">
       <c r="B61" t="s">
         <v>29</v>
       </c>
@@ -1395,5 +1698,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab de máquinas eléctricas/L3/Mediciones LAB3.xlsx
+++ b/Lab de máquinas eléctricas/L3/Mediciones LAB3.xlsx
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54:L57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1047,7 +1047,7 @@
         <v>0.98160000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>10.02</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>0.98150000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>220</v>
       </c>
@@ -1148,8 +1148,12 @@
         <f>I38-H38</f>
         <v>227.52769019000002</v>
       </c>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="M38">
+        <f>L38/(L38+H38)</f>
+        <v>0.92944317888071892</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>219.45</v>
       </c>
@@ -1187,8 +1191,12 @@
         <f t="shared" ref="L39:L41" si="4">I39-H39</f>
         <v>453.92581069639999</v>
       </c>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="M39">
+        <f t="shared" ref="M39:M41" si="5">L39/(L39+H39)</f>
+        <v>0.94903995545975328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>218.69</v>
       </c>
@@ -1226,8 +1234,12 @@
         <f t="shared" si="4"/>
         <v>707.19616776750001</v>
       </c>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>0.94925660103020137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>218.3</v>
       </c>
@@ -1265,11 +1277,15 @@
         <f t="shared" si="4"/>
         <v>927.0545166416</v>
       </c>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>0.9444320666682966</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:13">
       <c r="B46">
         <v>220.32</v>
       </c>
@@ -1350,8 +1366,12 @@
         <f>I46-H46</f>
         <v>10.182572398400001</v>
       </c>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="M46">
+        <f>L46/(L46+H46)</f>
+        <v>0.36760189163898921</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47">
         <v>219.13</v>
       </c>
@@ -1365,15 +1385,15 @@
         <v>4.0389999999999997</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F49" si="5">0.0003*B47^2 - 0.0004*B47 + 0.2198</f>
+        <f t="shared" ref="F47:F49" si="6">0.0003*B47^2 - 0.0004*B47 + 0.2198</f>
         <v>14.537535069999997</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ref="G47:G49" si="6">1.8849*C47^2 + 0.4937*C47 - 0.3442</f>
+        <f t="shared" ref="G47:G49" si="7">1.8849*C47^2 + 0.4937*C47 - 0.3442</f>
         <v>10.050219700900001</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" ref="H47:H49" si="7">F47+G47</f>
+        <f t="shared" ref="H47:H49" si="8">F47+G47</f>
         <v>24.587754770899998</v>
       </c>
       <c r="I47">
@@ -1386,11 +1406,15 @@
         <v>0.1195</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" ref="L47:L49" si="8">I47-H47</f>
+        <f t="shared" ref="L47:L49" si="9">I47-H47</f>
         <v>33.612245229100004</v>
       </c>
-    </row>
-    <row r="48" spans="2:12">
+      <c r="M47">
+        <f t="shared" ref="M47:M49" si="10">L47/(L47+H47)</f>
+        <v>0.57752998675429557</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48">
         <v>219.3</v>
       </c>
@@ -1404,15 +1428,15 @@
         <v>6.33</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.559827</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.699801497599996</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.259628497599998</v>
       </c>
       <c r="I48">
@@ -1425,8 +1449,12 @@
         <v>0.1439</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69.040371502400006</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>0.64948609127375356</v>
       </c>
     </row>
     <row r="49" spans="2:15">
@@ -1443,15 +1471,15 @@
         <v>8.64</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.52312012</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.872285490000003</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.395405610000005</v>
       </c>
       <c r="I49">
@@ -1464,8 +1492,12 @@
         <v>0.17</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>112.80459438999998</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>0.67466862673444972</v>
       </c>
     </row>
     <row r="52" spans="2:15">
@@ -1550,6 +1582,10 @@
         <f>I54-H54</f>
         <v>-4.0582532099996627E-2</v>
       </c>
+      <c r="M54">
+        <f>L54/(L54+H54)</f>
+        <v>-2.415626910714085E-3</v>
+      </c>
     </row>
     <row r="55" spans="2:15">
       <c r="B55">
@@ -1565,15 +1601,15 @@
         <v>5.0359999999999996</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" ref="F55:F57" si="9">0.0003*B55^2 - 0.0004*B55 + 0.2198</f>
+        <f t="shared" ref="F55:F57" si="11">0.0003*B55^2 - 0.0004*B55 + 0.2198</f>
         <v>14.800891069999999</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55:G57" si="10">1.8849*C55^2 + 0.4937*C55 - 0.3442</f>
+        <f t="shared" ref="G55:G57" si="12">1.8849*C55^2 + 0.4937*C55 - 0.3442</f>
         <v>10.5708132009</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H57" si="11">F55+G55</f>
+        <f t="shared" ref="H55:H57" si="13">F55+G55</f>
         <v>25.371704270899997</v>
       </c>
       <c r="I55">
@@ -1586,8 +1622,12 @@
         <v>5.6800000000000003E-2</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" ref="L55:L57" si="12">I55-H55</f>
+        <f t="shared" ref="L55:L57" si="14">I55-H55</f>
         <v>3.2282957291000045</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55:M57" si="15">L55/(L55+H55)</f>
+        <v>0.1128774730454547</v>
       </c>
     </row>
     <row r="56" spans="2:15">
@@ -1604,15 +1644,15 @@
         <v>6.33</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14.840601470000001</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.226370062499999</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32.066971532499998</v>
       </c>
       <c r="I56">
@@ -1625,8 +1665,12 @@
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.033028467500003</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="15"/>
+        <v>0.13566114467654994</v>
       </c>
     </row>
     <row r="57" spans="2:15">
@@ -1643,15 +1687,15 @@
         <v>8.83</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14.729548429999998</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34.135076049599988</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48.864624479599982</v>
       </c>
       <c r="I57">
@@ -1664,8 +1708,12 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.135375520400018</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="15"/>
+        <v>0.14272588632280733</v>
       </c>
     </row>
     <row r="60" spans="2:15">
